--- a/Logical Function.xlsx
+++ b/Logical Function.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" tabRatio="897" firstSheet="5" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" tabRatio="897" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="186">
   <si>
     <t>LOGICAL FUNCTION</t>
   </si>
@@ -578,28 +578,25 @@
     <t>Code</t>
   </si>
   <si>
+    <t>Harish</t>
+  </si>
+  <si>
     <t>&gt;=50%</t>
   </si>
   <si>
     <t>&gt;=60%</t>
   </si>
   <si>
-    <t>Gunjan</t>
-  </si>
-  <si>
-    <t>Pooja</t>
-  </si>
-  <si>
-    <t>Amit</t>
-  </si>
-  <si>
-    <t>Faiz</t>
-  </si>
-  <si>
-    <t>Heena</t>
-  </si>
-  <si>
-    <t>Ishan</t>
+    <t>Deeapk</t>
+  </si>
+  <si>
+    <t>Geeta</t>
+  </si>
+  <si>
+    <t>df34</t>
+  </si>
+  <si>
+    <t>35ff</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1444,7 @@
   <dimension ref="D2:J29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1702,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,131 +1785,187 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="D3" sqref="D3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="51"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="C1" s="51"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="b">
-        <f>OR(A3="Mohan",B3="Sharma")</f>
+      <c r="D3" t="b">
+        <f>OR(B3="Mohan",C3="Sharma")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E3" t="str">
+        <f>IF(ISNUMBER(A3),"True","False")</f>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="b">
-        <f t="shared" ref="C4:C10" si="0">OR(A4="Mohan",B4="Sharma")</f>
+      <c r="D4" t="b">
+        <f t="shared" ref="D4:D10" si="0">OR(B4="Mohan",C4="Sharma")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E10" si="1">IF(ISNUMBER(A4),"True","False")</f>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="b">
+      <c r="D5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="C6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="b">
+      <c r="D6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="b">
+      <c r="D7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="b">
+      <c r="D8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>344</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="b">
+      <c r="D9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="C10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="b">
+      <c r="D10" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1924,7 +1977,7 @@
   <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2082,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:G7"/>
+      <selection activeCell="G3" sqref="G3:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,7 +2123,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2102,7 +2155,7 @@
         <v>25</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2320,7 +2373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2329,7 +2384,6 @@
     <col min="3" max="5" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
     <col min="11" max="11" width="6.140625" customWidth="1"/>
     <col min="12" max="12" width="7.140625" customWidth="1"/>
   </cols>
@@ -4716,7 +4770,7 @@
   <dimension ref="B2:Q13"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5360,7 +5414,7 @@
         <v>80</v>
       </c>
       <c r="F3" s="10" t="str">
-        <f>IFERROR(VLOOKUP(E3,A:C,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(E3,A:B,2,0),"")</f>
         <v xml:space="preserve">ABHIJIT DAS              </v>
       </c>
     </row>
@@ -5378,7 +5432,7 @@
         <v>84</v>
       </c>
       <c r="F4" s="10" t="str">
-        <f t="shared" ref="F4:F11" si="0">IFERROR(VLOOKUP(E4,A:C,2,0),"")</f>
+        <f t="shared" ref="F4:F11" si="0">IFERROR(VLOOKUP(E4,A:B,2,0),"")</f>
         <v/>
       </c>
     </row>
@@ -6148,8 +6202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -7104,7 +7158,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K11"/>
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7182,7 +7236,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
@@ -7224,8 +7278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7319,7 +7373,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="47" t="str">
         <f>IF(LEFT($A2,1)=B$1,$A2,"")</f>
@@ -7335,7 +7389,7 @@
       </c>
       <c r="E2" s="47" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Deeapk</v>
       </c>
       <c r="F2" s="47" t="str">
         <f t="shared" si="0"/>
@@ -7347,7 +7401,7 @@
       </c>
       <c r="H2" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>Gunjan</v>
+        <v/>
       </c>
       <c r="I2" s="47" t="str">
         <f t="shared" si="0"/>
@@ -7428,7 +7482,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" s="47" t="str">
         <f t="shared" ref="B3:Q12" si="1">IF(LEFT($A3,1)=B$1,$A3,"")</f>
@@ -7456,7 +7510,7 @@
       </c>
       <c r="H3" s="47" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Geeta</v>
       </c>
       <c r="I3" s="47" t="str">
         <f t="shared" si="1"/>
@@ -7492,7 +7546,7 @@
       </c>
       <c r="Q3" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>Pooja</v>
+        <v/>
       </c>
       <c r="R3" s="47" t="str">
         <f t="shared" si="0"/>
@@ -7537,11 +7591,11 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B4" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>Amit</v>
+        <v/>
       </c>
       <c r="C4" s="47" t="str">
         <f t="shared" si="0"/>
@@ -7569,7 +7623,7 @@
       </c>
       <c r="I4" s="47" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Harish</v>
       </c>
       <c r="J4" s="47" t="str">
         <f t="shared" si="0"/>
@@ -7645,9 +7699,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7670,7 +7722,7 @@
       </c>
       <c r="G5" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>Faiz</v>
+        <v/>
       </c>
       <c r="H5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -7754,9 +7806,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7787,7 +7837,7 @@
       </c>
       <c r="I6" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>Heena</v>
+        <v/>
       </c>
       <c r="J6" s="47" t="str">
         <f t="shared" si="0"/>
@@ -7863,9 +7913,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7900,7 +7948,7 @@
       </c>
       <c r="J7" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>Ishan</v>
+        <v/>
       </c>
       <c r="K7" s="47" t="str">
         <f t="shared" si="0"/>
@@ -8537,32 +8585,32 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8575,7 +8623,7 @@
   <dimension ref="B2:C38"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8926,7 +8974,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8961,8 +9009,8 @@
         <v>7754</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>IF(A3&lt;B3,"True","False")</f>
-        <v>True</v>
+        <f>IF(A3&lt;B3,"Less Than","Greater Than")</f>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8973,8 +9021,8 @@
         <v>494</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" ref="C4:C34" si="0">IF(A4&lt;B4,"True","False")</f>
-        <v>True</v>
+        <f t="shared" ref="C4:C34" si="0">IF(A4&lt;B4,"Less Than","Greater Than")</f>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8986,7 +9034,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8998,7 +9046,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9010,7 +9058,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -9022,7 +9070,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9034,7 +9082,7 @@
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -9046,7 +9094,7 @@
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -9058,7 +9106,7 @@
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -9070,7 +9118,7 @@
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -9082,7 +9130,7 @@
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -9094,7 +9142,7 @@
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -9106,7 +9154,7 @@
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9118,7 +9166,7 @@
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9130,7 +9178,7 @@
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -9142,7 +9190,7 @@
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9154,7 +9202,7 @@
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -9166,7 +9214,7 @@
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9178,7 +9226,7 @@
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -9190,7 +9238,7 @@
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -9202,7 +9250,7 @@
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -9214,7 +9262,7 @@
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -9226,7 +9274,7 @@
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9238,7 +9286,7 @@
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9250,7 +9298,7 @@
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -9262,7 +9310,7 @@
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9274,7 +9322,7 @@
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9286,7 +9334,7 @@
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -9298,7 +9346,7 @@
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -9310,7 +9358,7 @@
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>True</v>
+        <v>Less Than</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9322,7 +9370,7 @@
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9334,7 +9382,7 @@
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>False</v>
+        <v>Greater Than</v>
       </c>
     </row>
   </sheetData>
@@ -9347,7 +9395,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C12"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9382,8 +9430,8 @@
         <v>41272</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>IF(A3&gt;B3,"Greater Than","Less Than")</f>
-        <v>Greater Than</v>
+        <f>IF(A3&gt;B3,"True","False")</f>
+        <v>True</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9395,8 +9443,8 @@
         <v>41303</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" ref="C4:C34" si="0">IF(A4&gt;B4,"Greater Than","Less Than")</f>
-        <v>Greater Than</v>
+        <f t="shared" ref="C4:C34" si="0">IF(A4&gt;B4,"True","False")</f>
+        <v>True</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -9408,7 +9456,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -9420,7 +9468,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9432,7 +9480,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -9444,7 +9492,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9456,7 +9504,7 @@
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -9468,7 +9516,7 @@
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -9480,7 +9528,7 @@
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -9492,7 +9540,7 @@
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -9504,7 +9552,7 @@
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -9516,7 +9564,7 @@
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -9528,7 +9576,7 @@
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9540,7 +9588,7 @@
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9552,7 +9600,7 @@
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -9564,7 +9612,7 @@
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9576,7 +9624,7 @@
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -9588,7 +9636,7 @@
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9600,7 +9648,7 @@
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -9612,7 +9660,7 @@
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -9624,7 +9672,7 @@
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -9636,7 +9684,7 @@
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -9648,7 +9696,7 @@
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9660,7 +9708,7 @@
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9672,7 +9720,7 @@
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -9684,7 +9732,7 @@
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9696,7 +9744,7 @@
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9708,7 +9756,7 @@
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -9720,7 +9768,7 @@
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -9732,7 +9780,7 @@
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9744,7 +9792,7 @@
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9756,7 +9804,7 @@
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Less Than</v>
+        <v>False</v>
       </c>
     </row>
   </sheetData>
